--- a/data_year/zb/公共管理、社会保障及其他/人民检察院直接立案侦查案件情况/人民检察院结案件数.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/人民检察院直接立案侦查案件情况/人民检察院结案件数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,798 +503,338 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1633</v>
+        <v>730</v>
       </c>
       <c r="C2" t="n">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
-        <v>1492</v>
+        <v>829</v>
       </c>
       <c r="F2" t="n">
-        <v>9472</v>
+        <v>3227</v>
       </c>
       <c r="G2" t="n">
-        <v>40770</v>
+        <v>34821</v>
       </c>
       <c r="H2" t="n">
-        <v>6685</v>
+        <v>7730</v>
       </c>
       <c r="I2" t="n">
-        <v>1347</v>
+        <v>2517</v>
       </c>
       <c r="J2" t="n">
-        <v>2213</v>
+        <v>3654</v>
       </c>
       <c r="K2" t="n">
-        <v>15129</v>
+        <v>9293</v>
       </c>
       <c r="L2" t="n">
-        <v>34085</v>
+        <v>27091</v>
       </c>
       <c r="M2" t="n">
-        <v>9082</v>
+        <v>14302</v>
       </c>
       <c r="N2" t="n">
-        <v>257</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1481</v>
+        <v>545</v>
       </c>
       <c r="C3" t="n">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>1663</v>
+        <v>692</v>
       </c>
       <c r="F3" t="n">
-        <v>8865</v>
+        <v>2733</v>
       </c>
       <c r="G3" t="n">
-        <v>41390</v>
+        <v>32006</v>
       </c>
       <c r="H3" t="n">
-        <v>7490</v>
+        <v>7257</v>
       </c>
       <c r="I3" t="n">
-        <v>1833</v>
+        <v>2452</v>
       </c>
       <c r="J3" t="n">
-        <v>2513</v>
+        <v>3568</v>
       </c>
       <c r="K3" t="n">
-        <v>15099</v>
+        <v>8412</v>
       </c>
       <c r="L3" t="n">
-        <v>33900</v>
+        <v>24749</v>
       </c>
       <c r="M3" t="n">
-        <v>9503</v>
+        <v>13356</v>
       </c>
       <c r="N3" t="n">
-        <v>315</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1518</v>
+        <v>492</v>
       </c>
       <c r="C4" t="n">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>1759</v>
+        <v>816</v>
       </c>
       <c r="F4" t="n">
-        <v>7569</v>
+        <v>2772</v>
       </c>
       <c r="G4" t="n">
-        <v>40776</v>
+        <v>34922</v>
       </c>
       <c r="H4" t="n">
-        <v>7691</v>
+        <v>8139</v>
       </c>
       <c r="I4" t="n">
-        <v>1908</v>
+        <v>2980</v>
       </c>
       <c r="J4" t="n">
-        <v>2506</v>
+        <v>3851</v>
       </c>
       <c r="K4" t="n">
-        <v>14858</v>
+        <v>8790</v>
       </c>
       <c r="L4" t="n">
-        <v>33085</v>
+        <v>26783</v>
       </c>
       <c r="M4" t="n">
-        <v>10179</v>
+        <v>14989</v>
       </c>
       <c r="N4" t="n">
-        <v>354</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1347</v>
-      </c>
-      <c r="C5" t="n">
-        <v>49</v>
-      </c>
+        <v>757</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>1434</v>
+        <v>632</v>
       </c>
       <c r="F5" t="n">
-        <v>6472</v>
+        <v>2730</v>
       </c>
       <c r="G5" t="n">
-        <v>37042</v>
-      </c>
-      <c r="H5" t="n">
-        <v>7056</v>
-      </c>
+        <v>35903</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>1873</v>
+        <v>3401</v>
       </c>
       <c r="J5" t="n">
-        <v>2402</v>
+        <v>4217</v>
       </c>
       <c r="K5" t="n">
-        <v>13172</v>
-      </c>
-      <c r="L5" t="n">
-        <v>29986</v>
-      </c>
+        <v>9199</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>9861</v>
+        <v>14778</v>
       </c>
       <c r="N5" t="n">
-        <v>414</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1238</v>
-      </c>
-      <c r="C6" t="n">
-        <v>29</v>
-      </c>
+        <v>772</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E6" t="n">
-        <v>1204</v>
+        <v>767</v>
       </c>
       <c r="F6" t="n">
-        <v>5831</v>
+        <v>2557</v>
       </c>
       <c r="G6" t="n">
-        <v>35138</v>
-      </c>
-      <c r="H6" t="n">
-        <v>6613</v>
-      </c>
+        <v>37844</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>1753</v>
+        <v>3598</v>
       </c>
       <c r="J6" t="n">
-        <v>2418</v>
+        <v>4056</v>
       </c>
       <c r="K6" t="n">
-        <v>12434</v>
-      </c>
-      <c r="L6" t="n">
-        <v>28525</v>
-      </c>
+        <v>8981</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>9773</v>
+        <v>16914</v>
       </c>
       <c r="N6" t="n">
-        <v>430</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1145</v>
-      </c>
-      <c r="C7" t="n">
-        <v>25</v>
-      </c>
+        <v>1022</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>844</v>
+        <v>641</v>
       </c>
       <c r="F7" t="n">
-        <v>5268</v>
+        <v>2532</v>
       </c>
       <c r="G7" t="n">
-        <v>32616</v>
-      </c>
-      <c r="H7" t="n">
-        <v>6124</v>
-      </c>
+        <v>36949</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>1703</v>
+        <v>3183</v>
       </c>
       <c r="J7" t="n">
-        <v>2432</v>
+        <v>3411</v>
       </c>
       <c r="K7" t="n">
-        <v>11077</v>
-      </c>
-      <c r="L7" t="n">
-        <v>26492</v>
-      </c>
+        <v>8843</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>9701</v>
+        <v>17143</v>
       </c>
       <c r="N7" t="n">
-        <v>402</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>814</v>
-      </c>
-      <c r="C8" t="n">
-        <v>24</v>
-      </c>
+        <v>921</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>838</v>
+        <v>593</v>
       </c>
       <c r="F8" t="n">
-        <v>4690</v>
+        <v>2557</v>
       </c>
       <c r="G8" t="n">
-        <v>31774</v>
-      </c>
-      <c r="H8" t="n">
-        <v>6077</v>
-      </c>
+        <v>32574</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>1847</v>
+        <v>2857</v>
       </c>
       <c r="J8" t="n">
-        <v>2578</v>
+        <v>3101</v>
       </c>
       <c r="K8" t="n">
-        <v>9899</v>
-      </c>
-      <c r="L8" t="n">
-        <v>25697</v>
-      </c>
+        <v>7848</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>10736</v>
+        <v>14509</v>
       </c>
       <c r="N8" t="n">
-        <v>324</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>926</v>
-      </c>
-      <c r="C9" t="n">
-        <v>23</v>
-      </c>
+        <v>758</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>810</v>
+        <v>590</v>
       </c>
       <c r="F9" t="n">
-        <v>4281</v>
+        <v>3181</v>
       </c>
       <c r="G9" t="n">
-        <v>32534</v>
-      </c>
-      <c r="H9" t="n">
-        <v>6538</v>
-      </c>
+        <v>40254</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>1949</v>
+        <v>3132</v>
       </c>
       <c r="J9" t="n">
-        <v>2853</v>
+        <v>4021</v>
       </c>
       <c r="K9" t="n">
-        <v>9663</v>
-      </c>
-      <c r="L9" t="n">
-        <v>25996</v>
-      </c>
+        <v>9476</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>11678</v>
+        <v>18850</v>
       </c>
       <c r="N9" t="n">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>816</v>
-      </c>
-      <c r="C10" t="n">
-        <v>15</v>
-      </c>
-      <c r="D10" t="n">
-        <v>15</v>
-      </c>
-      <c r="E10" t="n">
-        <v>911</v>
-      </c>
-      <c r="F10" t="n">
-        <v>4071</v>
-      </c>
-      <c r="G10" t="n">
-        <v>33749</v>
-      </c>
-      <c r="H10" t="n">
-        <v>7314</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2318</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3269</v>
-      </c>
-      <c r="K10" t="n">
-        <v>9692</v>
-      </c>
-      <c r="L10" t="n">
-        <v>26435</v>
-      </c>
-      <c r="M10" t="n">
-        <v>12350</v>
-      </c>
-      <c r="N10" t="n">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>741</v>
-      </c>
-      <c r="C11" t="n">
-        <v>11</v>
-      </c>
-      <c r="D11" t="n">
-        <v>13</v>
-      </c>
-      <c r="E11" t="n">
-        <v>831</v>
-      </c>
-      <c r="F11" t="n">
-        <v>3608</v>
-      </c>
-      <c r="G11" t="n">
-        <v>32560</v>
-      </c>
-      <c r="H11" t="n">
-        <v>7184</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2319</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3293</v>
-      </c>
-      <c r="K11" t="n">
-        <v>9089</v>
-      </c>
-      <c r="L11" t="n">
-        <v>25376</v>
-      </c>
-      <c r="M11" t="n">
-        <v>12398</v>
-      </c>
-      <c r="N11" t="n">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>730</v>
-      </c>
-      <c r="C12" t="n">
-        <v>14</v>
-      </c>
-      <c r="D12" t="n">
-        <v>15</v>
-      </c>
-      <c r="E12" t="n">
-        <v>829</v>
-      </c>
-      <c r="F12" t="n">
-        <v>3227</v>
-      </c>
-      <c r="G12" t="n">
-        <v>34821</v>
-      </c>
-      <c r="H12" t="n">
-        <v>7730</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2517</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3654</v>
-      </c>
-      <c r="K12" t="n">
-        <v>9293</v>
-      </c>
-      <c r="L12" t="n">
-        <v>27091</v>
-      </c>
-      <c r="M12" t="n">
-        <v>14302</v>
-      </c>
-      <c r="N12" t="n">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>545</v>
-      </c>
-      <c r="C13" t="n">
-        <v>11</v>
-      </c>
-      <c r="D13" t="n">
-        <v>14</v>
-      </c>
-      <c r="E13" t="n">
-        <v>692</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2733</v>
-      </c>
-      <c r="G13" t="n">
-        <v>32006</v>
-      </c>
-      <c r="H13" t="n">
-        <v>7257</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2452</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3568</v>
-      </c>
-      <c r="K13" t="n">
-        <v>8412</v>
-      </c>
-      <c r="L13" t="n">
-        <v>24749</v>
-      </c>
-      <c r="M13" t="n">
-        <v>13356</v>
-      </c>
-      <c r="N13" t="n">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>492</v>
-      </c>
-      <c r="C14" t="n">
-        <v>12</v>
-      </c>
-      <c r="D14" t="n">
-        <v>8</v>
-      </c>
-      <c r="E14" t="n">
-        <v>816</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2772</v>
-      </c>
-      <c r="G14" t="n">
-        <v>34922</v>
-      </c>
-      <c r="H14" t="n">
-        <v>8139</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2980</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3851</v>
-      </c>
-      <c r="K14" t="n">
-        <v>8790</v>
-      </c>
-      <c r="L14" t="n">
-        <v>26783</v>
-      </c>
-      <c r="M14" t="n">
-        <v>14989</v>
-      </c>
-      <c r="N14" t="n">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>757</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="n">
-        <v>3</v>
-      </c>
-      <c r="E15" t="n">
-        <v>632</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2730</v>
-      </c>
-      <c r="G15" t="n">
-        <v>35903</v>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>3401</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4217</v>
-      </c>
-      <c r="K15" t="n">
-        <v>9199</v>
-      </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>14778</v>
-      </c>
-      <c r="N15" t="n">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>772</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="n">
-        <v>8</v>
-      </c>
-      <c r="E16" t="n">
-        <v>767</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2557</v>
-      </c>
-      <c r="G16" t="n">
-        <v>37844</v>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>3598</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4056</v>
-      </c>
-      <c r="K16" t="n">
-        <v>8981</v>
-      </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>16914</v>
-      </c>
-      <c r="N16" t="n">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1022</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="n">
-        <v>2</v>
-      </c>
-      <c r="E17" t="n">
-        <v>641</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2532</v>
-      </c>
-      <c r="G17" t="n">
-        <v>36949</v>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>3183</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3411</v>
-      </c>
-      <c r="K17" t="n">
-        <v>8843</v>
-      </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>17143</v>
-      </c>
-      <c r="N17" t="n">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>921</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="n">
-        <v>7</v>
-      </c>
-      <c r="E18" t="n">
-        <v>593</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2557</v>
-      </c>
-      <c r="G18" t="n">
-        <v>32574</v>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="n">
-        <v>2857</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3101</v>
-      </c>
-      <c r="K18" t="n">
-        <v>7848</v>
-      </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>14509</v>
-      </c>
-      <c r="N18" t="n">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>758</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="n">
-        <v>4</v>
-      </c>
-      <c r="E19" t="n">
-        <v>590</v>
-      </c>
-      <c r="F19" t="n">
-        <v>3181</v>
-      </c>
-      <c r="G19" t="n">
-        <v>40254</v>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="n">
-        <v>3132</v>
-      </c>
-      <c r="J19" t="n">
-        <v>4021</v>
-      </c>
-      <c r="K19" t="n">
-        <v>9476</v>
-      </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>18850</v>
-      </c>
-      <c r="N19" t="n">
         <v>242</v>
       </c>
     </row>
